--- a/aspace_import_excel_template (Smith version).xlsx
+++ b/aspace_import_excel_template (Smith version).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17610" windowHeight="8955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -1571,9 +1571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AOA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2629,7 +2629,7 @@
       <formula1>"accession,audio,books,computer_disks,digital_object,graphic_materials,microform,mixed_materials,moving_images"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE6:AE1048576 AC6:AC1048576 Z6:Z1048576">
-      <formula1>"box,folder,drawer,item,mapcase,microdex,Portfolio,reel,roll,tube"</formula1>
+      <formula1>"box,folder,binder,drawer,item,mapcase,microdex,Portfolio,reel,roll,sheet,tube"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/aspace_import_excel_template (Smith version).xlsx
+++ b/aspace_import_excel_template (Smith version).xlsx
@@ -1571,79 +1571,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AOA6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" style="33" customWidth="1"/>
     <col min="2" max="2" width="0" style="17" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="48" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" customWidth="1"/>
+    <col min="7" max="7" width="30.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.453125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.54296875" style="48" customWidth="1"/>
+    <col min="12" max="12" width="14.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.453125" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="53" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="53" customWidth="1"/>
-    <col min="16" max="16" width="23.85546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" customWidth="1"/>
-    <col min="18" max="25" width="26.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="53" customWidth="1"/>
+    <col min="16" max="16" width="23.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" style="1" customWidth="1"/>
+    <col min="18" max="25" width="26.81640625" style="1" customWidth="1"/>
     <col min="26" max="26" width="23" style="1"/>
     <col min="27" max="27" width="23" style="53"/>
-    <col min="28" max="28" width="10.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.453125" style="1" customWidth="1"/>
     <col min="29" max="29" width="19" style="53" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" style="53" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.42578125" style="53" customWidth="1"/>
-    <col min="33" max="33" width="10.42578125" style="1" customWidth="1"/>
-    <col min="34" max="35" width="9.140625" style="1"/>
-    <col min="36" max="36" width="15.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="19.1796875" style="53" customWidth="1"/>
+    <col min="31" max="31" width="10.453125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.453125" style="53" customWidth="1"/>
+    <col min="33" max="33" width="10.453125" style="1" customWidth="1"/>
+    <col min="34" max="35" width="9.1796875" style="1"/>
+    <col min="36" max="36" width="15.26953125" style="1" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="38" max="38" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="15.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="39" max="39" width="15.453125" style="1" hidden="1" customWidth="1"/>
     <col min="40" max="41" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="15.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="20.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="12.85546875" style="1" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="15.1796875" style="1" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="20.1796875" style="1" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="12.81640625" style="1" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="11.453125" style="1" hidden="1" customWidth="1"/>
     <col min="47" max="53" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="54" max="54" width="11.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="12.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="56" max="58" width="13.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="59" max="60" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="15.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="11.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="12.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="56" max="58" width="13.54296875" style="1" hidden="1" customWidth="1"/>
+    <col min="59" max="60" width="10.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="15.453125" style="1" hidden="1" customWidth="1"/>
     <col min="62" max="62" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="63" max="63" width="17" style="1" customWidth="1"/>
-    <col min="64" max="64" width="12.28515625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="11.7109375" style="1" customWidth="1"/>
+    <col min="64" max="64" width="12.26953125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="11.7265625" style="1" customWidth="1"/>
     <col min="66" max="66" width="16" style="1" customWidth="1"/>
-    <col min="67" max="67" width="9.140625" style="1"/>
+    <col min="67" max="67" width="9.1796875" style="1"/>
     <col min="68" max="68" width="12" hidden="1" customWidth="1"/>
-    <col min="69" max="70" width="11.85546875" style="1" customWidth="1"/>
-    <col min="71" max="73" width="11.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="74" max="74" width="14.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="75" max="75" width="12.28515625" style="1" customWidth="1"/>
-    <col min="76" max="77" width="9.140625" style="1"/>
-    <col min="78" max="78" width="18.42578125" style="1" customWidth="1"/>
-    <col min="79" max="79" width="10.140625" style="1" customWidth="1"/>
-    <col min="80" max="1067" width="9.28515625" style="1"/>
+    <col min="69" max="70" width="11.81640625" style="1" customWidth="1"/>
+    <col min="71" max="73" width="11.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="74" max="74" width="14.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="75" max="75" width="12.26953125" style="1" customWidth="1"/>
+    <col min="76" max="77" width="9.1796875" style="1"/>
+    <col min="78" max="78" width="18.453125" style="1" customWidth="1"/>
+    <col min="79" max="79" width="10.1796875" style="1" customWidth="1"/>
+    <col min="80" max="1067" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:79" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="33" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" ht="64.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" ht="65.5" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:79" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:79" ht="105.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
         <v>68</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:79" s="44" customFormat="1" ht="56.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:79" s="44" customFormat="1" ht="56.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:79" ht="57.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:79" ht="57.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>67</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:79" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:79" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H1048576">
@@ -2628,8 +2628,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y1048576">
       <formula1>"accession,audio,books,computer_disks,digital_object,graphic_materials,microform,mixed_materials,moving_images"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE6:AE1048576 AC6:AC1048576 Z6:Z1048576">
-      <formula1>"box,folder,binder,drawer,item,mapcase,microdex,Portfolio,reel,roll,sheet,tube"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:Z1048576 AC6:AC1048576 AE6:AE1048576">
+      <formula1>"box,folder,binder,drawer,envelope,flat file folder,item,mapcase,microdex,Portfolio,reel,roll,sheet,tube"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -2645,48 +2645,48 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="128.28515625" customWidth="1"/>
-    <col min="2" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="128.26953125" customWidth="1"/>
+    <col min="2" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>132</v>
       </c>

--- a/aspace_import_excel_template (Smith version).xlsx
+++ b/aspace_import_excel_template (Smith version).xlsx
@@ -1573,7 +1573,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z7" sqref="Z7"/>
+      <selection pane="bottomLeft" activeCell="Z6" sqref="Z6:Z1048576 AC6:AC1048576 AE6:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2629,7 +2629,7 @@
       <formula1>"accession,audio,books,computer_disks,digital_object,graphic_materials,microform,mixed_materials,moving_images"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:Z1048576 AC6:AC1048576 AE6:AE1048576">
-      <formula1>"box,folder,binder,drawer,envelope,flat file folder,item,mapcase,microdex,Portfolio,reel,roll,sheet,tube"</formula1>
+      <formula1>"box,folder,binder,drawer,envelope,flat file folder,item,mapcase,microdex,Portfolio,reel,roll,sheet,tube,volume"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
